--- a/Docs/TaxoTox_output_template.xlsx
+++ b/Docs/TaxoTox_output_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yair\Documents\yair\research\estuary_rehabilitation\yairs_stuff\Students\Noam\TaxoTox\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\TaxoTox\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38102A2-D2DB-4E45-9DC6-B3EF533B4060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7585F68E-2510-41F9-B937-CBA73C147B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User-Input" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="45">
   <si>
     <t>Pollutant</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Concentration Addition values larger than 10 are considerted hazardouos</t>
+  </si>
+  <si>
+    <t>General *</t>
   </si>
 </sst>
 </file>
@@ -321,15 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -355,6 +349,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -640,7 +643,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B2" sqref="B2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7143A302-7615-4E4C-9724-0D178ED03A28}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,81 +797,81 @@
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3" t="s">
+      <c r="B5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="3" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -876,400 +879,400 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="11"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="11"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="11"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="11"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="11"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="11"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="11"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="11"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="11"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="11"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="11"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="11"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="11"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="11"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="11"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="14"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1313,81 +1316,81 @@
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="3" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1395,400 +1398,400 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="11"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="11"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="11"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="11"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="11"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="11"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="11"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="11"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="11"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="11"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="11"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="11"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="11"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="11"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="11"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="14"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1832,81 +1835,81 @@
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="3" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1914,400 +1917,400 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="11"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="11"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="11"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="11"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="11"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="11"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="11"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="11"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="11"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="8"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="11"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="11"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="11"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="11"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="11"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="11"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="14"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2324,7 +2327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9125011E-5109-4B74-B976-3737ED7F228A}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
